--- a/runs/run404/NotionalETEOutput404.xlsx
+++ b/runs/run404/NotionalETEOutput404.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT0_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0_404.MISSILE_SOMERSAULT0_404</t>
+    <t>MISSILE_HIGHWIND1_165.MISSILE_HIGHWIND1_165</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT0</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1471.443641852261</v>
+        <v>-1537.490764986776</v>
       </c>
       <c r="J2">
-        <v>1906.076064470538</v>
+        <v>1955.235036459806</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1455.759874365043</v>
+        <v>-1407.712222591418</v>
       </c>
       <c r="J3">
-        <v>1966.662526192119</v>
+        <v>1900.273592628882</v>
       </c>
       <c r="K3">
-        <v>310.0604305058577</v>
+        <v>300.3062982683064</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1481.418871268537</v>
+        <v>-1430.127387092337</v>
       </c>
       <c r="J4">
-        <v>1861.351847089312</v>
+        <v>1933.737268645293</v>
       </c>
       <c r="K4">
-        <v>577.7328621252045</v>
+        <v>586.1325838305406</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1369.608159145721</v>
+        <v>-1386.188953487557</v>
       </c>
       <c r="J5">
-        <v>1828.084941090502</v>
+        <v>1862.858903856411</v>
       </c>
       <c r="K5">
-        <v>844.7634193702763</v>
+        <v>858.5007545972968</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1328.464549652732</v>
+        <v>-1325.617583159855</v>
       </c>
       <c r="J6">
-        <v>1801.729963443149</v>
+        <v>1782.49102457887</v>
       </c>
       <c r="K6">
-        <v>1116.911686653918</v>
+        <v>1162.137238227867</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1356.840784256866</v>
+        <v>-1390.673524654472</v>
       </c>
       <c r="J7">
-        <v>1824.534600085919</v>
+        <v>1760.311104381813</v>
       </c>
       <c r="K7">
-        <v>1315.044333871844</v>
+        <v>1304.200404228106</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1338.245637328305</v>
+        <v>-1327.697965216494</v>
       </c>
       <c r="J8">
-        <v>1693.070497342227</v>
+        <v>1638.090958754061</v>
       </c>
       <c r="K8">
-        <v>1641.041527412394</v>
+        <v>1669.231096589913</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.9872820377426</v>
+        <v>-103.1745466753294</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1249.516878803212</v>
+        <v>-1325.008409235632</v>
       </c>
       <c r="J9">
-        <v>1741.632062728377</v>
+        <v>1696.727981002301</v>
       </c>
       <c r="K9">
-        <v>1758.673610012942</v>
+        <v>1718.850525690837</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>223.1865385152101</v>
+        <v>219.0115736061029</v>
       </c>
       <c r="G10">
-        <v>-83.66967971278871</v>
+        <v>-82.86764864334977</v>
       </c>
       <c r="H10">
-        <v>820.6731051044912</v>
+        <v>871.369459946044</v>
       </c>
       <c r="I10">
-        <v>-1266.613925191866</v>
+        <v>-1187.66352517272</v>
       </c>
       <c r="J10">
-        <v>1677.199911088862</v>
+        <v>1661.3740689046</v>
       </c>
       <c r="K10">
-        <v>1910.194368245457</v>
+        <v>2037.033004326545</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.4836404150279</v>
+        <v>160.7597155974854</v>
       </c>
       <c r="G11">
-        <v>-66.36413761380322</v>
+        <v>-70.07047651922169</v>
       </c>
       <c r="H11">
-        <v>1083.751854074208</v>
+        <v>1019.673279915201</v>
       </c>
       <c r="I11">
-        <v>-1229.046519638655</v>
+        <v>-1202.677815499329</v>
       </c>
       <c r="J11">
-        <v>1603.99445318499</v>
+        <v>1528.268695317235</v>
       </c>
       <c r="K11">
-        <v>2169.896088479093</v>
+        <v>2221.605950811149</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.6319775684318</v>
+        <v>145.0621749571236</v>
       </c>
       <c r="G12">
-        <v>-50.93252652257452</v>
+        <v>-48.26265851136623</v>
       </c>
       <c r="H12">
-        <v>1226.630133669461</v>
+        <v>1124.112119126409</v>
       </c>
       <c r="I12">
-        <v>-1192.250310978465</v>
+        <v>-1121.400284484984</v>
       </c>
       <c r="J12">
-        <v>1480.827585200728</v>
+        <v>1490.061051143121</v>
       </c>
       <c r="K12">
-        <v>2407.115930204448</v>
+        <v>2353.954951696298</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>122.9899383479931</v>
+        <v>119.0078518075065</v>
       </c>
       <c r="G13">
-        <v>-34.61639819959189</v>
+        <v>-32.57423005461629</v>
       </c>
       <c r="H13">
-        <v>1231.133441606725</v>
+        <v>1265.137446757138</v>
       </c>
       <c r="I13">
-        <v>-1162.888569158189</v>
+        <v>-1131.245099428074</v>
       </c>
       <c r="J13">
-        <v>1392.455770206992</v>
+        <v>1512.988447569108</v>
       </c>
       <c r="K13">
-        <v>2493.953952464984</v>
+        <v>2444.669828051673</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>113.339720032423</v>
+        <v>113.4302151727669</v>
       </c>
       <c r="G14">
-        <v>-18.15420247045684</v>
+        <v>-17.76903674317555</v>
       </c>
       <c r="H14">
-        <v>1343.995585141176</v>
+        <v>1372.991486480499</v>
       </c>
       <c r="I14">
-        <v>-1074.524437376193</v>
+        <v>-1064.399405567684</v>
       </c>
       <c r="J14">
-        <v>1392.798853703333</v>
+        <v>1388.065136668024</v>
       </c>
       <c r="K14">
-        <v>2680.646534955164</v>
+        <v>2754.852940357882</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.63017579428271</v>
+        <v>103.3904689156396</v>
       </c>
       <c r="G15">
-        <v>-0.9353635159124724</v>
+        <v>-0.9346350509562037</v>
       </c>
       <c r="H15">
-        <v>1377.761637258937</v>
+        <v>1384.650069845954</v>
       </c>
       <c r="I15">
-        <v>-1051.575300805416</v>
+        <v>-1026.343990775201</v>
       </c>
       <c r="J15">
-        <v>1340.03960744761</v>
+        <v>1434.665622958618</v>
       </c>
       <c r="K15">
-        <v>2862.047995895053</v>
+        <v>2824.533479771436</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.99201498571838</v>
+        <v>96.76332993742029</v>
       </c>
       <c r="G16">
-        <v>15.4126836300305</v>
+        <v>15.54235056463983</v>
       </c>
       <c r="H16">
-        <v>1423.59982933201</v>
+        <v>1381.800210615572</v>
       </c>
       <c r="I16">
-        <v>-1016.204362148114</v>
+        <v>-969.9647768030442</v>
       </c>
       <c r="J16">
-        <v>1335.859406831344</v>
+        <v>1324.464809636032</v>
       </c>
       <c r="K16">
-        <v>2847.240999134206</v>
+        <v>2760.39178681664</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.98443834509897</v>
+        <v>89.40274544312781</v>
       </c>
       <c r="G17">
-        <v>32.46600215793176</v>
+        <v>32.17854794755896</v>
       </c>
       <c r="H17">
-        <v>1399.07992346979</v>
+        <v>1487.544749061626</v>
       </c>
       <c r="I17">
-        <v>-963.5129352223597</v>
+        <v>-1003.081442029671</v>
       </c>
       <c r="J17">
-        <v>1250.719619859997</v>
+        <v>1216.53140347277</v>
       </c>
       <c r="K17">
-        <v>2878.427270412692</v>
+        <v>2955.038810811899</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.50133146784248</v>
+        <v>85.77186952701233</v>
       </c>
       <c r="G18">
-        <v>50.22595317443367</v>
+        <v>46.34047407747647</v>
       </c>
       <c r="H18">
-        <v>1527.954877722537</v>
+        <v>1438.523384420927</v>
       </c>
       <c r="I18">
-        <v>-961.2531837581306</v>
+        <v>-971.2449917507827</v>
       </c>
       <c r="J18">
-        <v>1282.368582102361</v>
+        <v>1217.365345296702</v>
       </c>
       <c r="K18">
-        <v>2902.80403735193</v>
+        <v>2914.504991771794</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.33992771977519</v>
+        <v>74.60692150191348</v>
       </c>
       <c r="G19">
-        <v>63.74685306140337</v>
+        <v>68.17463264311048</v>
       </c>
       <c r="H19">
-        <v>1606.684817912811</v>
+        <v>1576.77839663595</v>
       </c>
       <c r="I19">
-        <v>-846.5741900324086</v>
+        <v>-847.9538068973999</v>
       </c>
       <c r="J19">
-        <v>1134.246350231416</v>
+        <v>1146.918630990882</v>
       </c>
       <c r="K19">
-        <v>2977.809063221017</v>
+        <v>2968.536290756408</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.31516848001321</v>
+        <v>77.38801405956676</v>
       </c>
       <c r="G20">
-        <v>85.2954269160992</v>
+        <v>81.53979043299329</v>
       </c>
       <c r="H20">
-        <v>1613.74520535498</v>
+        <v>1494.605066254429</v>
       </c>
       <c r="I20">
-        <v>-824.2296450868345</v>
+        <v>-878.6796410972532</v>
       </c>
       <c r="J20">
-        <v>1156.195703921783</v>
+        <v>1082.28616904909</v>
       </c>
       <c r="K20">
-        <v>3197.43358431608</v>
+        <v>3284.882233595563</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.78846289974834</v>
+        <v>71.91314409235035</v>
       </c>
       <c r="G21">
-        <v>101.5392577739716</v>
+        <v>101.0043203300296</v>
       </c>
       <c r="H21">
-        <v>1583.447377303254</v>
+        <v>1571.507068720272</v>
       </c>
       <c r="I21">
-        <v>-823.8773756877727</v>
+        <v>-820.4693460145508</v>
       </c>
       <c r="J21">
-        <v>1073.845458074392</v>
+        <v>1057.1392091408</v>
       </c>
       <c r="K21">
-        <v>3098.504288449662</v>
+        <v>3108.830793076956</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.02461027500185</v>
+        <v>67.9335551891496</v>
       </c>
       <c r="G22">
-        <v>110.215834381986</v>
+        <v>112.5483493618526</v>
       </c>
       <c r="H22">
-        <v>1562.676479340422</v>
+        <v>1581.666589160155</v>
       </c>
       <c r="I22">
-        <v>-766.0244900524325</v>
+        <v>-757.1541673572204</v>
       </c>
       <c r="J22">
-        <v>983.0741714271413</v>
+        <v>1004.188061014837</v>
       </c>
       <c r="K22">
-        <v>3162.236035018474</v>
+        <v>3215.410767535512</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.80362953126946</v>
+        <v>64.03044501747495</v>
       </c>
       <c r="G23">
-        <v>135.6153541102001</v>
+        <v>130.8859016474613</v>
       </c>
       <c r="H23">
-        <v>1596.022451042582</v>
+        <v>1657.23696170831</v>
       </c>
       <c r="I23">
-        <v>-665.6488839602374</v>
+        <v>-672.7791100898032</v>
       </c>
       <c r="J23">
-        <v>984.4448443605834</v>
+        <v>991.4491055171214</v>
       </c>
       <c r="K23">
-        <v>3103.726649455233</v>
+        <v>3103.514945008702</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.99275015473108</v>
+        <v>64.11106078170103</v>
       </c>
       <c r="G24">
-        <v>147.9291025216465</v>
+        <v>142.7577671639818</v>
       </c>
       <c r="H24">
-        <v>1712.01179938723</v>
+        <v>1599.516434490657</v>
       </c>
       <c r="I24">
-        <v>-633.8724749266999</v>
+        <v>-650.9885942271465</v>
       </c>
       <c r="J24">
-        <v>933.0179143998904</v>
+        <v>920.1546230159981</v>
       </c>
       <c r="K24">
-        <v>3319.018648671356</v>
+        <v>3132.603571898611</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.73686538099928</v>
+        <v>58.66407357028687</v>
       </c>
       <c r="G25">
-        <v>163.946817006933</v>
+        <v>159.4698855712037</v>
       </c>
       <c r="H25">
-        <v>1610.313714503608</v>
+        <v>1679.407743511858</v>
       </c>
       <c r="I25">
-        <v>-574.2153029397618</v>
+        <v>-586.9593514009133</v>
       </c>
       <c r="J25">
-        <v>915.7921797775008</v>
+        <v>853.5426994295125</v>
       </c>
       <c r="K25">
-        <v>3119.791314124588</v>
+        <v>3201.136939569466</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.40916922130218</v>
+        <v>59.01562039904208</v>
       </c>
       <c r="G26">
-        <v>176.9523000311967</v>
+        <v>186.2007819743013</v>
       </c>
       <c r="H26">
-        <v>1723.911439559665</v>
+        <v>1617.929845346606</v>
       </c>
       <c r="I26">
-        <v>-522.4117547260481</v>
+        <v>-521.7867678397006</v>
       </c>
       <c r="J26">
-        <v>866.9965485730415</v>
+        <v>838.0746538201951</v>
       </c>
       <c r="K26">
-        <v>3214.722685253404</v>
+        <v>2956.722951649507</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.41581663631422</v>
+        <v>55.77779873641983</v>
       </c>
       <c r="G27">
-        <v>200.5454068966347</v>
+        <v>204.8550735795469</v>
       </c>
       <c r="H27">
-        <v>1670.605771130138</v>
+        <v>1723.699992363272</v>
       </c>
       <c r="I27">
-        <v>-509.3368884771537</v>
+        <v>-488.6690583454732</v>
       </c>
       <c r="J27">
-        <v>750.1104625391978</v>
+        <v>817.645780700384</v>
       </c>
       <c r="K27">
-        <v>2936.23945262739</v>
+        <v>3020.092960351629</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.53980348452998</v>
+        <v>54.77075420893825</v>
       </c>
       <c r="G28">
-        <v>204.4343295585412</v>
+        <v>220.2884625737229</v>
       </c>
       <c r="H28">
-        <v>1707.4401964856</v>
+        <v>1699.961030588462</v>
       </c>
       <c r="I28">
-        <v>-459.0714591158866</v>
+        <v>-429.6170096203171</v>
       </c>
       <c r="J28">
-        <v>751.8023607987568</v>
+        <v>749.078364908405</v>
       </c>
       <c r="K28">
-        <v>3055.941087306664</v>
+        <v>3050.621463988043</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.8746000945427</v>
+        <v>54.13793960434445</v>
       </c>
       <c r="G29">
-        <v>238.8337943762618</v>
+        <v>232.8135185100486</v>
       </c>
       <c r="H29">
-        <v>1751.158483201201</v>
+        <v>1767.439529632133</v>
       </c>
       <c r="I29">
-        <v>-394.3723930560727</v>
+        <v>-369.5502820149686</v>
       </c>
       <c r="J29">
-        <v>659.5170327498191</v>
+        <v>681.5692656571716</v>
       </c>
       <c r="K29">
-        <v>2851.834031520185</v>
+        <v>2927.532983612007</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.23044410349721</v>
+        <v>55.94992301065414</v>
       </c>
       <c r="G30">
-        <v>238.401340429978</v>
+        <v>236.4339702772839</v>
       </c>
       <c r="H30">
-        <v>1835.019134895779</v>
+        <v>1785.546911914274</v>
       </c>
       <c r="I30">
-        <v>-319.2615158568701</v>
+        <v>-329.0363459067108</v>
       </c>
       <c r="J30">
-        <v>610.9478479039371</v>
+        <v>653.0562938574795</v>
       </c>
       <c r="K30">
-        <v>2885.976992228167</v>
+        <v>2819.261669729038</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.91899917437024</v>
+        <v>53.97636681606667</v>
       </c>
       <c r="G31">
-        <v>251.7688501816355</v>
+        <v>258.112041248074</v>
       </c>
       <c r="H31">
-        <v>1710.330573890782</v>
+        <v>1707.246557964335</v>
       </c>
       <c r="I31">
-        <v>-273.9859647932042</v>
+        <v>-275.8546982489468</v>
       </c>
       <c r="J31">
-        <v>604.4279027202716</v>
+        <v>576.2690357183526</v>
       </c>
       <c r="K31">
-        <v>2530.62387010319</v>
+        <v>2556.525798911933</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.54501300132512</v>
+        <v>49.70229275157136</v>
       </c>
       <c r="G32">
-        <v>291.5103986948789</v>
+        <v>275.6041694190114</v>
       </c>
       <c r="H32">
-        <v>1829.969399613053</v>
+        <v>1830.124476000178</v>
       </c>
       <c r="I32">
-        <v>-217.3989264184513</v>
+        <v>-203.8617159766874</v>
       </c>
       <c r="J32">
-        <v>523.0307738623771</v>
+        <v>520.991175355616</v>
       </c>
       <c r="K32">
-        <v>2614.662672521666</v>
+        <v>2551.61082319878</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.23029858806911</v>
+        <v>51.26663648514187</v>
       </c>
       <c r="G33">
-        <v>289.8795995022757</v>
+        <v>305.1010141415292</v>
       </c>
       <c r="H33">
-        <v>1846.961932660647</v>
+        <v>1710.528957174263</v>
       </c>
       <c r="I33">
-        <v>-143.1968351134367</v>
+        <v>-144.9334742615439</v>
       </c>
       <c r="J33">
-        <v>492.9434075299366</v>
+        <v>469.0593801375807</v>
       </c>
       <c r="K33">
-        <v>2487.375490899486</v>
+        <v>2430.953247262728</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.43207482146803</v>
+        <v>49.98169143185095</v>
       </c>
       <c r="G34">
-        <v>323.5844840711455</v>
+        <v>314.6257861785794</v>
       </c>
       <c r="H34">
-        <v>1810.641208753395</v>
+        <v>1852.659503999204</v>
       </c>
       <c r="I34">
-        <v>-86.9286092059379</v>
+        <v>-81.42454039037996</v>
       </c>
       <c r="J34">
-        <v>462.5016266274304</v>
+        <v>422.8229880135417</v>
       </c>
       <c r="K34">
-        <v>2206.845271636152</v>
+        <v>2198.915183628932</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.05942180811321</v>
+        <v>48.78528142131061</v>
       </c>
       <c r="G35">
-        <v>332.4543673494076</v>
+        <v>329.2985071324136</v>
       </c>
       <c r="H35">
-        <v>1823.093083332205</v>
+        <v>1728.741145957641</v>
       </c>
       <c r="I35">
-        <v>-18.18592546365166</v>
+        <v>-17.84196015776849</v>
       </c>
       <c r="J35">
-        <v>376.1912828390147</v>
+        <v>413.4447137677157</v>
       </c>
       <c r="K35">
-        <v>2088.61392996464</v>
+        <v>1964.361636510318</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.5370673155926</v>
+        <v>48.02848740276644</v>
       </c>
       <c r="G36">
-        <v>331.1273314443685</v>
+        <v>348.4053926547821</v>
       </c>
       <c r="H36">
-        <v>1785.749240779204</v>
+        <v>1910.195438992655</v>
       </c>
       <c r="I36">
-        <v>45.33579512380613</v>
+        <v>48.03540434094205</v>
       </c>
       <c r="J36">
-        <v>343.3541754282039</v>
+        <v>337.5162830136705</v>
       </c>
       <c r="K36">
-        <v>1884.806959565522</v>
+        <v>1813.694217000354</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.48208016515566</v>
+        <v>46.04852673874399</v>
       </c>
       <c r="G37">
-        <v>345.1394176622975</v>
+        <v>351.998347702387</v>
       </c>
       <c r="H37">
-        <v>1842.409933331953</v>
+        <v>1797.222778680715</v>
       </c>
       <c r="I37">
-        <v>118.0141989655325</v>
+        <v>110.8413804660441</v>
       </c>
       <c r="J37">
-        <v>308.8393666798796</v>
+        <v>290.6178232583488</v>
       </c>
       <c r="K37">
-        <v>1568.520029511189</v>
+        <v>1557.12503190368</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.78727441452975</v>
+        <v>43.96598799774092</v>
       </c>
       <c r="G38">
-        <v>375.8477813532515</v>
+        <v>375.8192821473694</v>
       </c>
       <c r="H38">
-        <v>1885.254870619823</v>
+        <v>1784.414317944971</v>
       </c>
       <c r="I38">
-        <v>192.6569832265385</v>
+        <v>180.8242789066519</v>
       </c>
       <c r="J38">
-        <v>239.2882555248618</v>
+        <v>241.3890493127707</v>
       </c>
       <c r="K38">
-        <v>1383.358315812214</v>
+        <v>1400.707397479585</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.73403947452249</v>
+        <v>46.82143095135376</v>
       </c>
       <c r="G39">
-        <v>377.8824998567596</v>
+        <v>402.112520765855</v>
       </c>
       <c r="H39">
-        <v>1917.183571853306</v>
+        <v>1889.18688386088</v>
       </c>
       <c r="I39">
-        <v>245.7243962448076</v>
+        <v>252.4311445745618</v>
       </c>
       <c r="J39">
-        <v>196.7199334204892</v>
+        <v>193.0827477816468</v>
       </c>
       <c r="K39">
-        <v>1193.253033777045</v>
+        <v>1120.439346338541</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.1345727371454</v>
+        <v>42.11491572171335</v>
       </c>
       <c r="G40">
-        <v>402.7108720376409</v>
+        <v>423.4275776437641</v>
       </c>
       <c r="H40">
-        <v>1901.189550877252</v>
+        <v>1829.532517239666</v>
       </c>
       <c r="I40">
-        <v>328.9304235931739</v>
+        <v>316.7721464270564</v>
       </c>
       <c r="J40">
-        <v>152.3197342735656</v>
+        <v>153.9620939382223</v>
       </c>
       <c r="K40">
-        <v>897.52762059466</v>
+        <v>936.5457950628896</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>41.71641872973084</v>
+        <v>42.13901357754655</v>
       </c>
       <c r="G41">
-        <v>417.1925336192903</v>
+        <v>423.5871363028807</v>
       </c>
       <c r="H41">
-        <v>1870.033915032984</v>
+        <v>1884.741511567837</v>
       </c>
       <c r="I41">
-        <v>420.1345882786146</v>
+        <v>397.2915637260917</v>
       </c>
       <c r="J41">
-        <v>106.3318485387493</v>
+        <v>105.5929039112695</v>
       </c>
       <c r="K41">
-        <v>645.157378156605</v>
+        <v>631.5428167135489</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.96914195201025</v>
+        <v>44.62972618536975</v>
       </c>
       <c r="G42">
-        <v>452.5292088282505</v>
+        <v>460.9470437858441</v>
       </c>
       <c r="H42">
-        <v>1838.324422471595</v>
+        <v>1814.588972256471</v>
       </c>
       <c r="I42">
-        <v>497.5719820271062</v>
+        <v>493.8193866040444</v>
       </c>
       <c r="J42">
-        <v>56.32756572380882</v>
+        <v>56.54809833860472</v>
       </c>
       <c r="K42">
-        <v>325.858731579156</v>
+        <v>329.8975161742195</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.74122926859042</v>
+        <v>42.89212751328591</v>
       </c>
       <c r="G43">
-        <v>456.3856613834121</v>
+        <v>442.002762021926</v>
       </c>
       <c r="H43">
-        <v>1914.254889803205</v>
+        <v>1938.640390333993</v>
       </c>
       <c r="I43">
-        <v>579.8293179700295</v>
+        <v>535.7825432274651</v>
       </c>
       <c r="J43">
-        <v>5.303605237269671</v>
+        <v>5.091215387621709</v>
       </c>
       <c r="K43">
-        <v>33.4258903055488</v>
+        <v>33.11374436914908</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.33374893795938</v>
+        <v>43.45280916778034</v>
       </c>
       <c r="G44">
-        <v>491.4466565798662</v>
+        <v>470.1743079167835</v>
       </c>
       <c r="H44">
-        <v>1859.91351025608</v>
+        <v>1942.722569557199</v>
       </c>
       <c r="I44">
-        <v>652.6583620762287</v>
+        <v>625.8909560245737</v>
       </c>
       <c r="J44">
-        <v>-42.53416910481549</v>
+        <v>-43.17980370492164</v>
       </c>
       <c r="K44">
-        <v>-279.2082762795353</v>
+        <v>-297.5064790279134</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.13591960500839</v>
+        <v>40.11430699407295</v>
       </c>
       <c r="G45">
-        <v>479.8681996542199</v>
+        <v>474.6252416608166</v>
       </c>
       <c r="H45">
-        <v>1973.202432325737</v>
+        <v>1884.846021051025</v>
       </c>
       <c r="I45">
-        <v>693.3345046040226</v>
+        <v>740.8377606774732</v>
       </c>
       <c r="J45">
-        <v>-89.45440847346481</v>
+        <v>-90.69323986719643</v>
       </c>
       <c r="K45">
-        <v>-644.2412737397744</v>
+        <v>-629.8996804133991</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.88666589661879</v>
+        <v>40.1097781606997</v>
       </c>
       <c r="G46">
-        <v>506.3193275524823</v>
+        <v>492.6496159660608</v>
       </c>
       <c r="H46">
-        <v>1865.270506570597</v>
+        <v>1915.849829397102</v>
       </c>
       <c r="I46">
-        <v>774.7206354374024</v>
+        <v>783.7665687021217</v>
       </c>
       <c r="J46">
-        <v>-137.963729301714</v>
+        <v>-141.5700033923217</v>
       </c>
       <c r="K46">
-        <v>-948.2105374392223</v>
+        <v>-934.0253539112967</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.13557510507053</v>
+        <v>38.50090127597712</v>
       </c>
       <c r="G47">
-        <v>535.1185202514908</v>
+        <v>524.0652693408479</v>
       </c>
       <c r="H47">
-        <v>1988.709200060664</v>
+        <v>1921.568099153683</v>
       </c>
       <c r="I47">
-        <v>912.4468253323067</v>
+        <v>897.1391841951638</v>
       </c>
       <c r="J47">
-        <v>-192.8696292154</v>
+        <v>-197.4049371412188</v>
       </c>
       <c r="K47">
-        <v>-1374.128039409181</v>
+        <v>-1372.379090302225</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.06653836793967</v>
+        <v>39.5609372507262</v>
       </c>
       <c r="G48">
-        <v>564.5562804844992</v>
+        <v>519.6199266907773</v>
       </c>
       <c r="H48">
-        <v>1914.928466461743</v>
+        <v>1905.512657889972</v>
       </c>
       <c r="I48">
-        <v>1025.323947644441</v>
+        <v>942.0822154634153</v>
       </c>
       <c r="J48">
-        <v>-226.782113166973</v>
+        <v>-243.5142606009208</v>
       </c>
       <c r="K48">
-        <v>-1710.718533148133</v>
+        <v>-1659.886795827616</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.94615355814945</v>
+        <v>39.39293418950714</v>
       </c>
       <c r="G49">
-        <v>583.5950889118985</v>
+        <v>568.1304088270782</v>
       </c>
       <c r="H49">
-        <v>1863.534542027103</v>
+        <v>2032.997306855392</v>
       </c>
       <c r="I49">
-        <v>1059.935181622101</v>
+        <v>1123.131535026755</v>
       </c>
       <c r="J49">
-        <v>-274.4704545120618</v>
+        <v>-276.81779002578</v>
       </c>
       <c r="K49">
-        <v>-2000.889742903658</v>
+        <v>-2087.871351732707</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.18252503235013</v>
+        <v>37.01429423283428</v>
       </c>
       <c r="G50">
-        <v>559.3513662716638</v>
+        <v>569.4358878131256</v>
       </c>
       <c r="H50">
-        <v>1942.359366749679</v>
+        <v>2033.938892372717</v>
       </c>
       <c r="I50">
-        <v>1114.903190907592</v>
+        <v>1220.822283834562</v>
       </c>
       <c r="J50">
-        <v>-334.2675116429979</v>
+        <v>-330.8680931836597</v>
       </c>
       <c r="K50">
-        <v>-2460.106367196123</v>
+        <v>-2409.055474611291</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.64056171356332</v>
+        <v>38.24018723682104</v>
       </c>
       <c r="G51">
-        <v>574.042354943457</v>
+        <v>612.8469820444952</v>
       </c>
       <c r="H51">
-        <v>2051.470135951472</v>
+        <v>1897.600147400753</v>
       </c>
       <c r="I51">
-        <v>1208.212903621722</v>
+        <v>1234.502457746375</v>
       </c>
       <c r="J51">
-        <v>-391.2209573884982</v>
+        <v>-392.2069179056896</v>
       </c>
       <c r="K51">
-        <v>-2786.131555591352</v>
+        <v>-2888.108435226932</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.09712143510004</v>
+        <v>38.38684235761592</v>
       </c>
       <c r="G52">
-        <v>592.3436093719872</v>
+        <v>591.7788918269699</v>
       </c>
       <c r="H52">
-        <v>1991.794093724011</v>
+        <v>1987.311284601302</v>
       </c>
       <c r="I52">
-        <v>1409.470828892136</v>
+        <v>1371.249168065044</v>
       </c>
       <c r="J52">
-        <v>-443.072847936615</v>
+        <v>-427.7108802662793</v>
       </c>
       <c r="K52">
-        <v>-3231.056144500767</v>
+        <v>-3374.134908602388</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.18075102814646</v>
+        <v>36.18475500084563</v>
       </c>
       <c r="G53">
-        <v>598.3673937102626</v>
+        <v>633.4086882446217</v>
       </c>
       <c r="H53">
-        <v>1944.576161659774</v>
+        <v>2068.317877112738</v>
       </c>
       <c r="I53">
-        <v>1403.042228404537</v>
+        <v>1504.774493920825</v>
       </c>
       <c r="J53">
-        <v>-501.5797206989003</v>
+        <v>-485.5062856915563</v>
       </c>
       <c r="K53">
-        <v>-3814.353345555443</v>
+        <v>-3637.132392383644</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.74719521561196</v>
+        <v>38.0101840899594</v>
       </c>
       <c r="G54">
-        <v>655.0713246056333</v>
+        <v>648.0504246487527</v>
       </c>
       <c r="H54">
-        <v>1949.648270821153</v>
+        <v>2038.972565903152</v>
       </c>
       <c r="I54">
-        <v>1550.270670052479</v>
+        <v>1613.209942840067</v>
       </c>
       <c r="J54">
-        <v>-541.713776232849</v>
+        <v>-547.4001859658691</v>
       </c>
       <c r="K54">
-        <v>-4317.367104768646</v>
+        <v>-4414.891409342088</v>
       </c>
     </row>
   </sheetData>
